--- a/DailyReportTemplate2.xlsx
+++ b/DailyReportTemplate2.xlsx
@@ -515,7 +515,7 @@
       <formula1>=OFFSET('customers'!$A$1,0,0,COUNTA('customers'!$A:$A) - 0,1)</formula1>
     </dataValidation>
     <dataValidation sqref="B3:B100000" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"PMS,"</formula1>
+      <formula1>"PMS,AGO,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -528,7 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,35 +539,154 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>CASREY</t>
+          <t>ANDMORE ENTERPRISES LIMITED</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>COLLUSSION  ENTERPRISES</t>
+          <t>BACHULAL POPATLAL K LTD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OAK ENERGY SOLUTUINS LTD</t>
+          <t>BETAWAY PETROLEUM LIMITED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PETRONEL SERVICES</t>
+          <t>BLUE SKY PETROLEUM</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>CASREY</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>COLLUSSION  ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DULEXY ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ELCOWING COMPANY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ENSEN ENERGIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EON ENERGY LIMITED (FORMERLY SABILI)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HASS PETROLEUM (K) LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KIMWAMUTU ENTERPRISE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LOKUTCH ENTERPRISES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MANOA OIL LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>OAK ENERGY SOLUTUINS LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OILMARK ENERGY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PETRONEL SERVICES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RADIANT EXPRESS SUPPLIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>RANGERS OIL LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SAVA S STATION</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SUMMER ENERGY LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WELLS OIL LIMITED</t>
         </is>
       </c>
     </row>
